--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13250.63979602412</v>
+        <v>-15813.66013192921</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>149.812512821443</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>182.7921074136303</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>204.0021640799186</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>41.89385936819339</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -829,7 +829,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>90.32706253001659</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>204.3847403725744</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>129.0285447273771</v>
       </c>
       <c r="G5" t="n">
-        <v>344.2259042648678</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>143.4892441578612</v>
       </c>
       <c r="W7" t="n">
-        <v>10.81662417955695</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>1.782072264240794</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>76.98837034120145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>32.8475612415813</v>
+        <v>116.5446615659167</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>50.06209150957653</v>
+        <v>165.5241382922705</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>192.8170508184358</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>66.25628701154712</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>176.5196562849271</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>41.74133133758713</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>47.33239976701618</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>65.06198119183937</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>178.3456785990316</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>66.39615665301152</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,10 +2530,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634788</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>16.92025364381883</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>172.3645574474256</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>110.0177171766861</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>93.07916359105414</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>141.5017810206666</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710093</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3430,13 +3430,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>61.66004604095001</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>98.20549876776197</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>8.168913835720309</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,13 +3718,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>219.9857967652655</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,10 +3901,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>1.632620083627539</v>
+        <v>144.108843301494</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4135,19 +4135,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>261.5505590167096</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>220.9731342426603</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1407.188045139998</v>
+        <v>1348.90174705041</v>
       </c>
       <c r="C2" t="n">
-        <v>1038.225528199586</v>
+        <v>979.9392301099981</v>
       </c>
       <c r="D2" t="n">
-        <v>679.9598295928355</v>
+        <v>621.6735315032477</v>
       </c>
       <c r="E2" t="n">
-        <v>679.9598295928355</v>
+        <v>235.8852789050034</v>
       </c>
       <c r="F2" t="n">
-        <v>673.014328843632</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G2" t="n">
-        <v>257.3095785679209</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.022298735314</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.022298735314</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.022298735314</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>2520.022298735314</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>2167.253643465199</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X2" t="n">
-        <v>1793.787885204119</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y2" t="n">
-        <v>1793.787885204119</v>
+        <v>1500.22751757712</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>143.6627691908469</v>
+        <v>168.0008189145199</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143497</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458215</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>756.3421070895761</v>
+        <v>1590.995858314207</v>
       </c>
       <c r="C4" t="n">
-        <v>587.4059241616692</v>
+        <v>1422.059675386301</v>
       </c>
       <c r="D4" t="n">
-        <v>437.2892847493334</v>
+        <v>1271.943035973965</v>
       </c>
       <c r="E4" t="n">
-        <v>289.3761911669403</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="F4" t="n">
-        <v>142.48624366903</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>1413.467639269233</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V4" t="n">
-        <v>1158.783151063346</v>
+        <v>2307.654840194268</v>
       </c>
       <c r="W4" t="n">
-        <v>1158.783151063346</v>
+        <v>2018.237670157308</v>
       </c>
       <c r="X4" t="n">
-        <v>1158.783151063346</v>
+        <v>1811.788437457737</v>
       </c>
       <c r="Y4" t="n">
-        <v>937.9905719198158</v>
+        <v>1590.995858314207</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1822.970833065919</v>
+        <v>901.3425442071309</v>
       </c>
       <c r="C5" t="n">
-        <v>1454.008316125508</v>
+        <v>901.3425442071309</v>
       </c>
       <c r="D5" t="n">
-        <v>1095.742617518757</v>
+        <v>901.3425442071309</v>
       </c>
       <c r="E5" t="n">
-        <v>709.9543649205129</v>
+        <v>901.3425442071309</v>
       </c>
       <c r="F5" t="n">
-        <v>703.0088641713095</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
         <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362816</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230815</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740838</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764995</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723848</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400153</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926623</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532448</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796628</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453057</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>1291.481876182943</v>
       </c>
       <c r="X5" t="n">
-        <v>2209.570673130041</v>
+        <v>1291.481876182943</v>
       </c>
       <c r="Y5" t="n">
-        <v>2209.570673130041</v>
+        <v>901.3425442071309</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500112</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310611</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495379</v>
+        <v>593.0223835625326</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>956.2844025217526</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281865</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>769.5800553833139</v>
+        <v>623.11813092506</v>
       </c>
       <c r="C7" t="n">
-        <v>600.6438724554071</v>
+        <v>623.11813092506</v>
       </c>
       <c r="D7" t="n">
-        <v>600.6438724554071</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E7" t="n">
-        <v>452.7307788730139</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H7" t="n">
         <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312191</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,7 +4750,7 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
         <v>1216.838891429094</v>
@@ -4759,16 +4759,16 @@
         <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>962.1544032232072</v>
+        <v>1071.900260966607</v>
       </c>
       <c r="W7" t="n">
-        <v>951.2285202135537</v>
+        <v>1071.900260966607</v>
       </c>
       <c r="X7" t="n">
-        <v>951.2285202135537</v>
+        <v>843.9107100685901</v>
       </c>
       <c r="Y7" t="n">
-        <v>951.2285202135537</v>
+        <v>623.11813092506</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1302.576789404184</v>
+        <v>1588.713578732507</v>
       </c>
       <c r="C8" t="n">
-        <v>1302.576789404184</v>
+        <v>1219.751061792095</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974335</v>
+        <v>861.4853631853446</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>475.6971105871003</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>64.71120579749277</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>53.0468595621857</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>53.0468595621857</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872921</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926627</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926627</v>
+        <v>1975.313418796628</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583056</v>
+        <v>1975.313418796628</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.808578312942</v>
+        <v>1975.313418796628</v>
       </c>
       <c r="X8" t="n">
-        <v>1380.342820051862</v>
+        <v>1975.313418796628</v>
       </c>
       <c r="Y8" t="n">
-        <v>1302.576789404184</v>
+        <v>1975.313418796628</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>114.5432626034359</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429752</v>
+        <v>299.2648838844857</v>
       </c>
       <c r="L9" t="n">
-        <v>801.944955774447</v>
+        <v>593.9684409159572</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>957.2304598751771</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330612</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>938.9442613508774</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="C10" t="n">
-        <v>770.0080784229705</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="D10" t="n">
-        <v>619.8914390106347</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="E10" t="n">
-        <v>471.9783454282416</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312192</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>1348.582277079134</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="X10" t="n">
-        <v>1120.592726181117</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="Y10" t="n">
-        <v>1120.592726181117</v>
+        <v>452.7307788730139</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,40 +5033,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876697</v>
+        <v>1016.580456911442</v>
       </c>
       <c r="C13" t="n">
-        <v>580.8993044876697</v>
+        <v>847.6442739835348</v>
       </c>
       <c r="D13" t="n">
-        <v>580.8993044876697</v>
+        <v>697.5276345711991</v>
       </c>
       <c r="E13" t="n">
-        <v>432.9862109052766</v>
+        <v>549.614540988806</v>
       </c>
       <c r="F13" t="n">
-        <v>286.0962634073662</v>
+        <v>402.7245934908956</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,7 +5215,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
@@ -5224,25 +5224,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614396</v>
+        <v>1419.021500885211</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179095</v>
+        <v>1198.228921741681</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>302.45403664168</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>302.45403664168</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>160.7422054838781</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5501,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>119.2902967703784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>119.2902967703784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135296</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2332.106875017495</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2112.505410040436</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1823.430183384634</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1568.745695178747</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1279.328525141787</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1051.338974243769</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.338974243769</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5744,34 +5744,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,19 +5832,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>352.5519571452613</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>915.1035305473698</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>746.1673476194629</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>596.0507082071272</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>448.1376146247341</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>301.2476671268237</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>301.2476671268237</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>159.5358359690217</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2199.770229732631</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1910.695003076829</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1656.010514870942</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1366.593344833982</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>1138.603793935964</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459586</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>599.6019060180517</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>449.485266605716</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>449.485266605716</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>302.5953191078056</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854707</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817746</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761984</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6215,61 +6215,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.843151638089</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>572.9069687101821</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>572.9069687101821</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>424.993875127789</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>278.1039276298786</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>110.9078283447586</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611859</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683287</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6549,13 +6549,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400717</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>187.8360202106528</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2304.031991640193</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2084.430526663135</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1795.355300007332</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1540.670811801445</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1251.253641764485</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,25 +6923,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6950,37 +6950,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797191</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327652</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048583</v>
+        <v>632.7557007032925</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925226</v>
+        <v>482.6390612909568</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>334.7259677085636</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>334.7259677085636</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7120,25 +7120,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630049</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.6374272687974</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>631.7012443408905</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408905</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2438.711655463372</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2255.856821118276</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2036.255356141217</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1747.180129485415</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1492.495641279528</v>
+        <v>1466.177978334236</v>
       </c>
       <c r="W40" t="n">
-        <v>1203.078471242567</v>
+        <v>1176.760808297275</v>
       </c>
       <c r="X40" t="n">
-        <v>1203.078471242567</v>
+        <v>948.7712573992578</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.2858920990371</v>
+        <v>727.9786782557277</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>868.6673633290468</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C43" t="n">
-        <v>699.7311804011399</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888042</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,31 +7567,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
         <v>2264.108249235165</v>
@@ -7606,13 +7606,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1499.097958200834</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X43" t="n">
-        <v>1271.108407302816</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y43" t="n">
-        <v>1050.315828159286</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="44">
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>538.7363435406111</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1713.268596655246</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1458.584108449359</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1169.166938412398</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X46" t="n">
-        <v>941.1773875143809</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y46" t="n">
-        <v>720.3848083708508</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>30.36925650589448</v>
+        <v>54.95314511566525</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8079,7 +8079,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.4490126143858</v>
       </c>
       <c r="P6" t="n">
-        <v>168.7434581780635</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.9556134883076979</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241554</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154994</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>224.0839383280811</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>97.01638848248675</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.190246567156956e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>115.4620467826923</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>32.89260457060138</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>15.00954930701842</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016433</v>
+        <v>181.0262860016461</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>39.5245049809784</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>133.6938862346284</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>16.20385512672617</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>39.05977172825666</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>99.12798163925733</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>123.374459202405</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>114.1584408891654</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>38.59775584152629</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>72.4449747012147</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>39.52450498097798</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>84.77391660561916</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>67.31863952450688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>58.20633287440135</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,13 +25606,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>32.15184655856248</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,10 +25789,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>284.8903782529634</v>
+        <v>142.414155035097</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,19 +26023,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>24.63391537253455</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>298593.7657794695</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457137</v>
+        <v>328416.7079457136</v>
       </c>
       <c r="D2" t="n">
         <v>328416.7079457135</v>
@@ -26323,13 +26323,13 @@
         <v>322858.6398760026</v>
       </c>
       <c r="F2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="G2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="H2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="I2" t="n">
         <v>322858.6398760024</v>
@@ -26338,7 +26338,7 @@
         <v>322858.6398760024</v>
       </c>
       <c r="K2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="L2" t="n">
         <v>322858.6398760024</v>
@@ -26347,13 +26347,13 @@
         <v>322858.6398760026</v>
       </c>
       <c r="N2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="O2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="P2" t="n">
         <v>322858.6398760025</v>
-      </c>
-      <c r="O2" t="n">
-        <v>322858.6398760025</v>
-      </c>
-      <c r="P2" t="n">
-        <v>322858.6398760024</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245464</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099822</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289269</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91763.11654919837</v>
+        <v>91763.11654919857</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618639</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731976</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731962</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731962</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731996</v>
+        <v>8117.312426732056</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
@@ -26448,7 +26448,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731893</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984467</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1000858.906785493</v>
+        <v>-1001045.300174032</v>
       </c>
       <c r="C6" t="n">
-        <v>101160.9352440052</v>
+        <v>101160.9352440054</v>
       </c>
       <c r="D6" t="n">
-        <v>101160.9352440051</v>
+        <v>101160.935244005</v>
       </c>
       <c r="E6" t="n">
-        <v>-293866.6439991826</v>
+        <v>-293901.3819246186</v>
       </c>
       <c r="F6" t="n">
-        <v>213618.7976253637</v>
+        <v>213584.0596999277</v>
       </c>
       <c r="G6" t="n">
-        <v>213618.7976253635</v>
+        <v>213584.0596999276</v>
       </c>
       <c r="H6" t="n">
-        <v>213618.7976253634</v>
+        <v>213584.0596999276</v>
       </c>
       <c r="I6" t="n">
-        <v>213618.7976253633</v>
+        <v>213584.0596999276</v>
       </c>
       <c r="J6" t="n">
-        <v>46013.61981538076</v>
+        <v>45978.88188994538</v>
       </c>
       <c r="K6" t="n">
-        <v>213618.7976253634</v>
+        <v>213584.0596999276</v>
       </c>
       <c r="L6" t="n">
-        <v>213618.7976253633</v>
+        <v>213584.0596999276</v>
       </c>
       <c r="M6" t="n">
-        <v>81011.50389643678</v>
+        <v>80976.76597100086</v>
       </c>
       <c r="N6" t="n">
-        <v>213618.7976253635</v>
+        <v>213584.0596999278</v>
       </c>
       <c r="O6" t="n">
-        <v>213618.7976253634</v>
+        <v>213584.0596999276</v>
       </c>
       <c r="P6" t="n">
-        <v>213618.7976253635</v>
+        <v>213584.0596999277</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175389</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175389</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000383</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241351</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000383</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>232.9213288420376</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>81.55835603060096</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>75.97953751478759</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27588,7 +27588,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>21.3249150164628</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>277.8475010143343</v>
       </c>
       <c r="G5" t="n">
-        <v>67.32179850808615</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>108.6483991659668</v>
       </c>
       <c r="W7" t="n">
-        <v>275.706374157034</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>63.92784040822973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>309.2495683148521</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>253.6754370950097</v>
+        <v>169.9783367706743</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730002</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166592</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190643</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.501508014705</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177242</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040586</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335769</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31449,34 +31449,34 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069559</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024982</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730002</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166592</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190643</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.501508014705</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177242</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040586</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335769</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31686,34 +31686,34 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069559</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024982</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,34 +31838,34 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107737</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>197.6412480909875</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>152.5685698206127</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,22 +32552,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>399.190220890813</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496639</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33096,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,22 +33263,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>167.1165249313368</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>320.9147064709962</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>93.34947739681193</v>
+        <v>117.9333660065826</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457275</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949725</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637947</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939896</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091734</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820403</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>521.8736946105087</v>
       </c>
       <c r="P6" t="n">
-        <v>418.4229873015959</v>
+        <v>568.1422977634693</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977088</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870589</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457275</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949725</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637947</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939896</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>63.93583437922504</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676403</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820403</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>568.1422977634693</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870589</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663293</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>57.65947400496596</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>25.73094315394598</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>261.348781916454</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663306</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>189.5729943876629</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
